--- a/01.地图种子&轮回者/轮回者.xlsx
+++ b/01.地图种子&轮回者/轮回者.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="人族" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="306">
   <si>
     <t xml:space="preserve">姓</t>
   </si>
@@ -1334,49 +1334,7 @@
     <t xml:space="preserve">妲</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">内测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">身残志坚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">飞升大赛优胜者：编辑昵称。</t>
-    </r>
+    <t xml:space="preserve">内测“身残志坚”飞升大赛优胜者：编辑昵称。</t>
   </si>
   <si>
     <t xml:space="preserve">申申</t>
@@ -1962,12 +1920,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">猫妖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云翊</t>
-  </si>
-  <si>
     <t xml:space="preserve">牛</t>
   </si>
   <si>
@@ -2421,6 +2373,110 @@
   </si>
   <si>
     <t xml:space="preserve">修行者</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">游戏安装根目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\AmazingCultivationSimulator\Settings\Npc\Reincarnate\reincarnate.txt 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">档案中将要轮回者的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">IsHide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">即可于游戏中使用</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2432,7 +2488,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2483,11 +2539,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2660,7 +2711,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2757,26 +2808,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2801,18 +2832,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2821,11 +2840,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2837,27 +2856,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2869,7 +2876,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2897,20 +2904,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2943,9 +2946,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="72.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="2" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1006" min="12" style="2" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1007" style="0" width="11.57"/>
   </cols>
@@ -4781,254 +4784,254 @@
       <c r="K88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
       <c r="K89" s="18"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C90" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="25" t="s">
+      <c r="C90" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
       <c r="K90" s="18"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C91" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="28" t="s">
+      <c r="C91" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
       <c r="K91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="25" t="s">
+      <c r="C92" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
       <c r="K92" s="18"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="25" t="s">
+      <c r="C93" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
       <c r="K93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="25" t="s">
+      <c r="C94" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
       <c r="K94" s="18"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="25" t="s">
+      <c r="C95" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
       <c r="K95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
       <c r="K96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="25" t="s">
+      <c r="C97" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
       <c r="K97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
       <c r="K98" s="18"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="28" t="s">
+      <c r="C99" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
       <c r="K99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="33"/>
+      <c r="C100" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
@@ -5047,15 +5050,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="5.43"/>
@@ -5063,10 +5066,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="103.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="103.12"/>
   </cols>
   <sheetData>
-    <row r="1" s="34" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="29" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5104,331 +5107,313 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+    <row r="2" s="29" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="38" t="n">
+      <c r="E2" s="30" t="n">
         <v>72</v>
       </c>
-      <c r="F2" s="39" t="n">
+      <c r="F2" s="31" t="n">
         <v>6.5</v>
       </c>
-      <c r="G2" s="39" t="n">
+      <c r="G2" s="31" t="n">
         <v>6.3</v>
       </c>
-      <c r="H2" s="39" t="n">
+      <c r="H2" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="39" t="n">
+      <c r="I2" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="J2" s="39" t="n">
+      <c r="J2" s="31" t="n">
         <v>7.4</v>
       </c>
-      <c r="K2" s="39" t="n">
+      <c r="K2" s="31" t="n">
         <v>5.9</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="32" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="F3" s="43" t="n">
+      <c r="F3" s="35" t="n">
         <v>4.2</v>
       </c>
-      <c r="G3" s="43" t="n">
+      <c r="G3" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="43" t="n">
+      <c r="H3" s="35" t="n">
         <v>10</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="35" t="n">
         <v>8.2</v>
       </c>
-      <c r="J3" s="43" t="n">
+      <c r="J3" s="35" t="n">
         <v>5.2</v>
       </c>
-      <c r="K3" s="43" t="n">
+      <c r="K3" s="35" t="n">
         <v>7.19</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="36" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="34" t="n">
         <v>176</v>
       </c>
-      <c r="F4" s="43" t="n">
+      <c r="F4" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="43" t="n">
+      <c r="G4" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="43" t="n">
+      <c r="H4" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="I4" s="43" t="n">
+      <c r="I4" s="35" t="n">
         <v>6.9</v>
       </c>
-      <c r="J4" s="43" t="n">
+      <c r="J4" s="35" t="n">
         <v>8.9</v>
       </c>
-      <c r="K4" s="43" t="n">
+      <c r="K4" s="35" t="n">
         <v>6.52</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="37" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="42" t="n">
+      <c r="E5" s="34" t="n">
         <v>83</v>
       </c>
-      <c r="F5" s="43" t="n">
+      <c r="F5" s="35" t="n">
         <v>6.9</v>
       </c>
-      <c r="G5" s="43" t="n">
+      <c r="G5" s="35" t="n">
         <v>4.8</v>
       </c>
-      <c r="H5" s="43" t="n">
+      <c r="H5" s="35" t="n">
         <v>9.5</v>
       </c>
-      <c r="I5" s="43" t="n">
+      <c r="I5" s="35" t="n">
         <v>6.8</v>
       </c>
-      <c r="J5" s="43" t="n">
+      <c r="J5" s="35" t="n">
         <v>8.6</v>
       </c>
-      <c r="K5" s="43" t="n">
+      <c r="K5" s="35" t="n">
         <v>7.28</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="37" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="45"/>
+      <c r="C6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="34" t="n">
+        <v>187</v>
+      </c>
+      <c r="F6" s="35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G6" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I6" s="35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J6" s="35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K6" s="35" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="42" t="n">
-        <v>187</v>
-      </c>
-      <c r="F7" s="43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G7" s="43" t="n">
+      <c r="B7" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="34" t="n">
+        <v>412</v>
+      </c>
+      <c r="F7" s="35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G7" s="35" t="n">
         <v>10</v>
       </c>
-      <c r="H7" s="43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I7" s="43" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J7" s="43" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K7" s="43" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>269</v>
+      <c r="H7" s="35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I7" s="35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J7" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="35" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="42" t="n">
-        <v>412</v>
-      </c>
-      <c r="F8" s="43" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G8" s="43" t="n">
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="34" t="n">
+        <v>216</v>
+      </c>
+      <c r="F8" s="35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G8" s="35" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="43" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I8" s="43" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J8" s="43" t="n">
+      <c r="H8" s="35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I8" s="35" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J8" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="43" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>272</v>
+      <c r="K8" s="35" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="42" t="n">
-        <v>216</v>
-      </c>
-      <c r="F9" s="43" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G9" s="43" t="n">
+        <v>272</v>
+      </c>
+      <c r="E9" s="39" t="n">
+        <v>212</v>
+      </c>
+      <c r="F9" s="40" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="G9" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="H9" s="43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I9" s="43" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J9" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" s="43" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="L9" s="45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="H9" s="40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I9" s="40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J9" s="40" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K9" s="40" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="50" t="n">
-        <v>212</v>
-      </c>
-      <c r="F10" s="51" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="G10" s="51" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" s="51" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I10" s="51" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J10" s="51" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K10" s="51" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>278</v>
-      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -5446,11 +5431,9 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5466,15 +5449,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.29"/>
@@ -5484,38 +5467,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="57"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>11</v>
@@ -5524,13 +5507,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="58"/>
+        <v>280</v>
+      </c>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>11</v>
@@ -5539,129 +5522,129 @@
         <v>13</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" s="58"/>
+        <v>282</v>
+      </c>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="58"/>
+        <v>285</v>
+      </c>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="58"/>
+        <v>285</v>
+      </c>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
         <v>253</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" s="58"/>
+        <v>291</v>
+      </c>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="58"/>
+        <v>291</v>
+      </c>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="58"/>
+        <v>295</v>
+      </c>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="58"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="58"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>35</v>
@@ -5670,62 +5653,84 @@
         <v>13</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="58"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="58"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="58"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="s">
+      <c r="C17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="48"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <mergeCells count="2">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
